--- a/Files/PRISMA_Scr_Checklist.xlsx
+++ b/Files/PRISMA_Scr_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b68bdbf0e302d9b/Documents/PhD/RMarkdown/Articles/MSM_SR/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{A11A8D9F-956D-47C8-9F8C-D3705B3E88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCE2A19B-56D3-4F27-87A2-F60A1439FCE2}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{A11A8D9F-956D-47C8-9F8C-D3705B3E88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF727B6A-0C32-4A43-8553-906207219F31}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{9B1C6611-760F-40A4-AC85-AB0ABBDB83D9}"/>
+    <workbookView xWindow="-3650" yWindow="2190" windowWidth="7520" windowHeight="7220" xr2:uid="{9B1C6611-760F-40A4-AC85-AB0ABBDB83D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Section</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>Supplementary Materials, part B</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>5-16</t>
+  </si>
+  <si>
+    <t>16-21</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -534,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE1EE2B-F0B2-4582-BB6A-47D7BCED4E74}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,6 +618,9 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -608,6 +632,9 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -619,6 +646,9 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -630,6 +660,9 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -641,6 +674,9 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -652,6 +688,9 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -663,6 +702,9 @@
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -674,6 +716,9 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -685,6 +730,9 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -710,6 +758,9 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -721,6 +772,9 @@
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -732,6 +786,9 @@
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -771,6 +828,9 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -782,6 +842,9 @@
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -793,6 +856,9 @@
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -804,6 +870,9 @@
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -814,6 +883,9 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
